--- a/Assesment/parabank.xlsx
+++ b/Assesment/parabank.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
   <si>
     <t>Test case ID</t>
   </si>
@@ -754,10 +754,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,146 +1829,6 @@
       </c>
       <c r="I28" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D38" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D39" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D40" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D44" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D50" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D53" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D55" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D56" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
@@ -2061,11 +1921,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2183,11 +2043,11 @@
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
